--- a/Idioma.xlsx
+++ b/Idioma.xlsx
@@ -8,12 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matias\Documents\GitHub\Proyecto-diploma\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{09DC5D23-A87D-4633-A13F-110C198A7074}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9904C21D-7667-45BB-96B7-3E57CCE23DA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{6B5CBA2D-E456-47BC-BFAB-469435F14461}"/>
+    <workbookView xWindow="13170" yWindow="1800" windowWidth="15375" windowHeight="7875" xr2:uid="{6B5CBA2D-E456-47BC-BFAB-469435F14461}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja5" sheetId="5" r:id="rId2"/>
+    <sheet name="Hoja4" sheetId="4" r:id="rId3"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="201">
   <si>
     <t>LOGIN</t>
   </si>
@@ -90,9 +93,6 @@
     <t>ITEM ALTA CONDUCTOR</t>
   </si>
   <si>
-    <t>ITEM MODIFICAR CONDUCTOR</t>
-  </si>
-  <si>
     <t>ITEM GESTION TERMINAL</t>
   </si>
   <si>
@@ -151,6 +151,492 @@
   </si>
   <si>
     <t>CERRAR SESIÓN</t>
+  </si>
+  <si>
+    <t>1-Castellano</t>
+  </si>
+  <si>
+    <t>2-Ingles</t>
+  </si>
+  <si>
+    <t>CÓDIGO DE USUARIO</t>
+  </si>
+  <si>
+    <t>CONTRASEÑA</t>
+  </si>
+  <si>
+    <t>INGRESAR</t>
+  </si>
+  <si>
+    <t>TERMINAL</t>
+  </si>
+  <si>
+    <t>USER</t>
+  </si>
+  <si>
+    <t>PASSWORD</t>
+  </si>
+  <si>
+    <t>Menú Principal</t>
+  </si>
+  <si>
+    <t>Main Menu</t>
+  </si>
+  <si>
+    <t>Producto</t>
+  </si>
+  <si>
+    <t>Tanque</t>
+  </si>
+  <si>
+    <t>Conductor</t>
+  </si>
+  <si>
+    <t>Gestión terminal</t>
+  </si>
+  <si>
+    <t>Menú Usuario</t>
+  </si>
+  <si>
+    <t>Administración de usuarios</t>
+  </si>
+  <si>
+    <t>Seguridad de sistema</t>
+  </si>
+  <si>
+    <t>Cerrar sesión</t>
+  </si>
+  <si>
+    <t>Consultar producto</t>
+  </si>
+  <si>
+    <t>Productos operados</t>
+  </si>
+  <si>
+    <t>Consultar tanque</t>
+  </si>
+  <si>
+    <t>Consultar conductor</t>
+  </si>
+  <si>
+    <t>Alta de producto</t>
+  </si>
+  <si>
+    <t>Verificar producto-terminal</t>
+  </si>
+  <si>
+    <t>Asignar producto-terminal</t>
+  </si>
+  <si>
+    <t>Alta de tanque</t>
+  </si>
+  <si>
+    <t>Transferencia de stock</t>
+  </si>
+  <si>
+    <t>Alta de conductor</t>
+  </si>
+  <si>
+    <t>Verificar documento</t>
+  </si>
+  <si>
+    <t>Generar remito</t>
+  </si>
+  <si>
+    <t>Generar recibo</t>
+  </si>
+  <si>
+    <t>Pedidos pendientes</t>
+  </si>
+  <si>
+    <t>Cambiar idioma</t>
+  </si>
+  <si>
+    <t>Cambiar contraseña</t>
+  </si>
+  <si>
+    <t>Usuarios</t>
+  </si>
+  <si>
+    <t>Consultar usuario</t>
+  </si>
+  <si>
+    <t>Crear usuario</t>
+  </si>
+  <si>
+    <t>Familia</t>
+  </si>
+  <si>
+    <t>Consultar familia</t>
+  </si>
+  <si>
+    <t>Crear familia</t>
+  </si>
+  <si>
+    <t>Consultar bitácora</t>
+  </si>
+  <si>
+    <t>Generar copia de seguridad</t>
+  </si>
+  <si>
+    <t>Restaurar copia de seguridad</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>Consult product</t>
+  </si>
+  <si>
+    <t>New product</t>
+  </si>
+  <si>
+    <t>Operated products</t>
+  </si>
+  <si>
+    <t>Check product-terminal</t>
+  </si>
+  <si>
+    <t>Assign product-terminal</t>
+  </si>
+  <si>
+    <t>Tank</t>
+  </si>
+  <si>
+    <t>Consult tank</t>
+  </si>
+  <si>
+    <t>New tank</t>
+  </si>
+  <si>
+    <t>Change tank</t>
+  </si>
+  <si>
+    <t>Stock transfer</t>
+  </si>
+  <si>
+    <t>Consult driver</t>
+  </si>
+  <si>
+    <t>New driver</t>
+  </si>
+  <si>
+    <t>Change driver</t>
+  </si>
+  <si>
+    <t>Terminal management</t>
+  </si>
+  <si>
+    <t>Check document</t>
+  </si>
+  <si>
+    <t>Shipping</t>
+  </si>
+  <si>
+    <t>Receipt</t>
+  </si>
+  <si>
+    <t>Pending orders</t>
+  </si>
+  <si>
+    <t>User menu</t>
+  </si>
+  <si>
+    <t>Change languages</t>
+  </si>
+  <si>
+    <t>Change password</t>
+  </si>
+  <si>
+    <t>User management</t>
+  </si>
+  <si>
+    <t>Users</t>
+  </si>
+  <si>
+    <t>Consult user</t>
+  </si>
+  <si>
+    <t>New user</t>
+  </si>
+  <si>
+    <t>Family</t>
+  </si>
+  <si>
+    <t>Consult family</t>
+  </si>
+  <si>
+    <t>New family</t>
+  </si>
+  <si>
+    <t>System security</t>
+  </si>
+  <si>
+    <t>Consult Logbook</t>
+  </si>
+  <si>
+    <t>New backup</t>
+  </si>
+  <si>
+    <t>Restore Backup</t>
+  </si>
+  <si>
+    <t>Sign off</t>
+  </si>
+  <si>
+    <t>Menú asdsa</t>
+  </si>
+  <si>
+    <t>Driver</t>
+  </si>
+  <si>
+    <t>id_idioma</t>
+  </si>
+  <si>
+    <t>id_idioma_mi</t>
+  </si>
+  <si>
+    <t>mensaje</t>
+  </si>
+  <si>
+    <t>Stock tranfer</t>
+  </si>
+  <si>
+    <t>Consultar dirver</t>
+  </si>
+  <si>
+    <t>User managemenT</t>
+  </si>
+  <si>
+    <t>CONSULTAR USUARIO</t>
+  </si>
+  <si>
+    <t>GRILLA NOMBRE</t>
+  </si>
+  <si>
+    <t>GRILLA APELLIDO</t>
+  </si>
+  <si>
+    <t>GROUPBOX INFORMACION</t>
+  </si>
+  <si>
+    <t>GROUPBOX MAIL</t>
+  </si>
+  <si>
+    <t>GROUPBOX TERMINAL</t>
+  </si>
+  <si>
+    <t>GROUPBOX DNI</t>
+  </si>
+  <si>
+    <t>GROUPBOX BLOQUEADO</t>
+  </si>
+  <si>
+    <t>BOTON MODIFICAR</t>
+  </si>
+  <si>
+    <t>BOTON BLANQUEAR CONTRASEÑA</t>
+  </si>
+  <si>
+    <t>BLOQUEAR USUARIO</t>
+  </si>
+  <si>
+    <t>DESBLOQUEAR USUARIO</t>
+  </si>
+  <si>
+    <t>BOTON DESBLOQUEAR USUARIO</t>
+  </si>
+  <si>
+    <t>BOTON BLOQUEAR USUARIO</t>
+  </si>
+  <si>
+    <t>BOTON OTORTAR PATENTES</t>
+  </si>
+  <si>
+    <t>BOTON NEGAR PATENTES</t>
+  </si>
+  <si>
+    <t>BOTON ADM FAMILIAS</t>
+  </si>
+  <si>
+    <t>MENU CONSULTAR USUARIO</t>
+  </si>
+  <si>
+    <t>USUARIO</t>
+  </si>
+  <si>
+    <t>Código</t>
+  </si>
+  <si>
+    <t>GRILLA CÓDIGO</t>
+  </si>
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>Apellido</t>
+  </si>
+  <si>
+    <t>INFORMACIÓN USUARIO</t>
+  </si>
+  <si>
+    <t>MAIL</t>
+  </si>
+  <si>
+    <t>DNI</t>
+  </si>
+  <si>
+    <t>BLOQUEADO</t>
+  </si>
+  <si>
+    <t>MODIFICAR</t>
+  </si>
+  <si>
+    <t>BLANQUEAR CONTRASEÑA</t>
+  </si>
+  <si>
+    <t>OTORTAR PATENTES</t>
+  </si>
+  <si>
+    <t>NEGAR PATENTES</t>
+  </si>
+  <si>
+    <t>ADMINISTRACION DE FAMILIAS</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Surname</t>
+  </si>
+  <si>
+    <t>Last name</t>
+  </si>
+  <si>
+    <t>BLOCK</t>
+  </si>
+  <si>
+    <t>CHANGE</t>
+  </si>
+  <si>
+    <t>REGENERATE PASSWORD</t>
+  </si>
+  <si>
+    <t>BLOCK USER</t>
+  </si>
+  <si>
+    <t>UNBLOCK USER</t>
+  </si>
+  <si>
+    <t>DENY PATENTS</t>
+  </si>
+  <si>
+    <t>GIVE PATENTS</t>
+  </si>
+  <si>
+    <t>FAMILY MANAGEMENT</t>
+  </si>
+  <si>
+    <t>Insert into dbo.IdiomaMensaje values (</t>
+  </si>
+  <si>
+    <t xml:space="preserve">, </t>
+  </si>
+  <si>
+    <t>,'</t>
+  </si>
+  <si>
+    <t>);</t>
+  </si>
+  <si>
+    <t>USUARIO'</t>
+  </si>
+  <si>
+    <t>Código'</t>
+  </si>
+  <si>
+    <t>Nombre'</t>
+  </si>
+  <si>
+    <t>Apellido'</t>
+  </si>
+  <si>
+    <t>INFORMACIÓN USUARIO'</t>
+  </si>
+  <si>
+    <t>MAIL'</t>
+  </si>
+  <si>
+    <t>TERMINAL'</t>
+  </si>
+  <si>
+    <t>BLOQUEADO'</t>
+  </si>
+  <si>
+    <t>MODIFICAR'</t>
+  </si>
+  <si>
+    <t>BLANQUEAR CONTRASEÑA'</t>
+  </si>
+  <si>
+    <t>BLOQUEAR USUARIO'</t>
+  </si>
+  <si>
+    <t>DNI'</t>
+  </si>
+  <si>
+    <t>DESBLOQUEAR USUARIO'</t>
+  </si>
+  <si>
+    <t>OTORTAR PATENTES'</t>
+  </si>
+  <si>
+    <t>NEGAR PATENTES'</t>
+  </si>
+  <si>
+    <t>ADMINISTRACION DE FAMILIAS'</t>
+  </si>
+  <si>
+    <t>USER'</t>
+  </si>
+  <si>
+    <t>Code'</t>
+  </si>
+  <si>
+    <t>Name'</t>
+  </si>
+  <si>
+    <t>Last name'</t>
+  </si>
+  <si>
+    <t>USER INFORMATION'</t>
+  </si>
+  <si>
+    <t>BLOCK'</t>
+  </si>
+  <si>
+    <t>CHANGE'</t>
+  </si>
+  <si>
+    <t>REGENERATE PASSWORD'</t>
+  </si>
+  <si>
+    <t>BLOCK USER'</t>
+  </si>
+  <si>
+    <t>UNBLOCK USER'</t>
+  </si>
+  <si>
+    <t>GIVE PATENTS'</t>
+  </si>
+  <si>
+    <t>DENY PATENTS'</t>
+  </si>
+  <si>
+    <t>FAMILY MANAGEMENT'</t>
   </si>
 </sst>
 </file>
@@ -186,8 +672,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -502,218 +992,3657 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2CE4345-EE65-4DE3-BD7F-75470FAF1116}">
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49:C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="43.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>3</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="1">
+        <v>4</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F6" s="1">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F7" s="1">
+        <v>6</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F8" s="1">
+        <v>7</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" t="s">
+        <v>85</v>
+      </c>
+      <c r="F9" s="1">
+        <v>8</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" t="s">
+        <v>86</v>
+      </c>
+      <c r="F10" s="1">
+        <v>9</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" t="s">
+        <v>87</v>
+      </c>
+      <c r="F11" s="1">
+        <v>10</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" t="s">
+        <v>88</v>
+      </c>
+      <c r="F12" s="1">
+        <v>11</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" t="s">
+        <v>89</v>
+      </c>
+      <c r="F13" s="1">
+        <v>12</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" t="s">
+        <v>90</v>
+      </c>
+      <c r="F14" s="1">
+        <v>13</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" t="s">
+        <v>92</v>
+      </c>
+      <c r="F15" s="1">
+        <v>14</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" t="s">
+        <v>117</v>
+      </c>
+      <c r="F16" s="1">
+        <v>15</v>
+      </c>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" t="s">
+        <v>93</v>
+      </c>
+      <c r="F17" s="1">
+        <v>16</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" t="s">
+        <v>94</v>
+      </c>
+      <c r="F18" s="1">
+        <v>17</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" t="s">
+        <v>96</v>
+      </c>
+      <c r="F19" s="1">
+        <v>19</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" t="s">
+        <v>67</v>
+      </c>
+      <c r="E20" t="s">
+        <v>97</v>
+      </c>
+      <c r="F20" s="1">
+        <v>20</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" t="s">
+        <v>68</v>
+      </c>
+      <c r="E21" t="s">
+        <v>98</v>
+      </c>
+      <c r="F21" s="1">
+        <v>21</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" t="s">
+        <v>99</v>
+      </c>
+      <c r="F22" s="1">
+        <v>22</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" t="s">
+        <v>70</v>
+      </c>
+      <c r="E23" t="s">
+        <v>100</v>
+      </c>
+      <c r="F23" s="1">
+        <v>23</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" t="s">
+        <v>53</v>
+      </c>
+      <c r="E24" t="s">
+        <v>101</v>
+      </c>
+      <c r="F24" s="1">
+        <v>24</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>71</v>
+      </c>
+      <c r="E25" t="s">
+        <v>102</v>
+      </c>
+      <c r="F25" s="1">
+        <v>25</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>72</v>
+      </c>
+      <c r="E26" t="s">
+        <v>103</v>
+      </c>
+      <c r="F26" s="1">
+        <v>26</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>54</v>
+      </c>
+      <c r="E27" t="s">
+        <v>104</v>
+      </c>
+      <c r="F27" s="1">
+        <v>27</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" t="s">
+        <v>73</v>
+      </c>
+      <c r="E28" t="s">
+        <v>105</v>
+      </c>
+      <c r="F28" s="1">
+        <v>28</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29" t="s">
+        <v>74</v>
+      </c>
+      <c r="E29" t="s">
+        <v>106</v>
+      </c>
+      <c r="F29" s="1">
+        <v>29</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30" t="s">
+        <v>75</v>
+      </c>
+      <c r="E30" t="s">
+        <v>107</v>
+      </c>
+      <c r="F30" s="1">
+        <v>30</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" t="s">
+        <v>31</v>
+      </c>
+      <c r="D31" t="s">
+        <v>76</v>
+      </c>
+      <c r="E31" t="s">
+        <v>108</v>
+      </c>
+      <c r="F31" s="1">
+        <v>31</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" t="s">
+        <v>32</v>
+      </c>
+      <c r="D32" t="s">
+        <v>77</v>
+      </c>
+      <c r="E32" t="s">
+        <v>109</v>
+      </c>
+      <c r="F32" s="1">
+        <v>32</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" t="s">
+        <v>33</v>
+      </c>
+      <c r="D33" t="s">
+        <v>78</v>
+      </c>
+      <c r="E33" t="s">
+        <v>110</v>
+      </c>
+      <c r="F33" s="1">
+        <v>33</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" t="s">
+        <v>34</v>
+      </c>
+      <c r="D34" t="s">
+        <v>55</v>
+      </c>
+      <c r="E34" t="s">
+        <v>111</v>
+      </c>
+      <c r="F34" s="1">
+        <v>34</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" t="s">
+        <v>35</v>
+      </c>
+      <c r="D35" t="s">
+        <v>79</v>
+      </c>
+      <c r="E35" t="s">
+        <v>112</v>
+      </c>
+      <c r="F35" s="1">
+        <v>35</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" t="s">
+        <v>36</v>
+      </c>
+      <c r="D36" t="s">
+        <v>80</v>
+      </c>
+      <c r="E36" t="s">
+        <v>113</v>
+      </c>
+      <c r="F36" s="1">
+        <v>36</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" t="s">
+        <v>37</v>
+      </c>
+      <c r="D37" t="s">
+        <v>81</v>
+      </c>
+      <c r="E37" t="s">
+        <v>114</v>
+      </c>
+      <c r="F37" s="1">
+        <v>37</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" t="s">
+        <v>38</v>
+      </c>
+      <c r="D38" t="s">
+        <v>56</v>
+      </c>
+      <c r="E38" t="s">
+        <v>115</v>
+      </c>
+      <c r="F38" s="1">
+        <v>38</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>124</v>
+      </c>
+      <c r="C39" t="s">
+        <v>141</v>
+      </c>
+      <c r="D39" t="s">
+        <v>142</v>
+      </c>
+      <c r="E39" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>124</v>
+      </c>
+      <c r="C40" t="s">
+        <v>144</v>
+      </c>
+      <c r="D40" t="s">
+        <v>143</v>
+      </c>
+      <c r="E40" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>124</v>
+      </c>
+      <c r="C41" t="s">
+        <v>125</v>
+      </c>
+      <c r="D41" t="s">
+        <v>145</v>
+      </c>
+      <c r="E41" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>124</v>
+      </c>
+      <c r="C42" t="s">
+        <v>126</v>
+      </c>
+      <c r="D42" t="s">
+        <v>146</v>
+      </c>
+      <c r="E42" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>124</v>
+      </c>
+      <c r="C43" t="s">
+        <v>127</v>
+      </c>
+      <c r="D43" t="s">
+        <v>147</v>
+      </c>
+      <c r="E43" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>124</v>
+      </c>
+      <c r="C44" t="s">
+        <v>128</v>
+      </c>
+      <c r="D44" t="s">
+        <v>148</v>
+      </c>
+      <c r="E44" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>124</v>
+      </c>
+      <c r="C45" t="s">
+        <v>129</v>
+      </c>
+      <c r="D45" t="s">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>124</v>
+      </c>
+      <c r="C46" t="s">
+        <v>130</v>
+      </c>
+      <c r="D46" t="s">
+        <v>149</v>
+      </c>
+      <c r="E46" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>124</v>
+      </c>
+      <c r="C47" t="s">
+        <v>131</v>
+      </c>
+      <c r="D47" t="s">
+        <v>150</v>
+      </c>
+      <c r="E47" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>124</v>
+      </c>
+      <c r="C48" t="s">
+        <v>132</v>
+      </c>
+      <c r="D48" t="s">
+        <v>151</v>
+      </c>
+      <c r="E48" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>124</v>
+      </c>
+      <c r="C49" t="s">
+        <v>133</v>
+      </c>
+      <c r="D49" t="s">
+        <v>152</v>
+      </c>
+      <c r="E49" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>124</v>
+      </c>
+      <c r="C50" t="s">
+        <v>137</v>
+      </c>
+      <c r="D50" t="s">
+        <v>134</v>
+      </c>
+      <c r="E50" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>124</v>
+      </c>
+      <c r="C51" t="s">
+        <v>136</v>
+      </c>
+      <c r="D51" t="s">
+        <v>135</v>
+      </c>
+      <c r="E51" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>124</v>
+      </c>
+      <c r="C52" t="s">
+        <v>138</v>
+      </c>
+      <c r="D52" t="s">
+        <v>153</v>
+      </c>
+      <c r="E52" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>124</v>
+      </c>
+      <c r="C53" t="s">
+        <v>139</v>
+      </c>
+      <c r="D53" t="s">
+        <v>154</v>
+      </c>
+      <c r="E53" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>124</v>
+      </c>
+      <c r="C54" t="s">
+        <v>140</v>
+      </c>
+      <c r="D54" t="s">
+        <v>155</v>
+      </c>
+      <c r="E54" t="s">
+        <v>167</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{697E1E1F-CFDA-4A98-85E8-BF5C6951EFF4}">
+  <dimension ref="A1:H32"/>
+  <sheetViews>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="D32" sqref="D17:D32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D1">
+        <v>38</v>
+      </c>
+      <c r="E1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="H1" t="str">
+        <f t="shared" ref="H1:H12" si="0">_xlfn.CONCAT(A1:G1)</f>
+        <v>Insert into dbo.IdiomaMensaje values (1, 38,'USUARIO');</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D2">
+        <v>39</v>
+      </c>
+      <c r="E2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F2" t="s">
+        <v>173</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="H2" t="str">
+        <f t="shared" si="0"/>
+        <v>Insert into dbo.IdiomaMensaje values (1, 39,'Código');</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D3">
+        <v>40</v>
+      </c>
+      <c r="E3" t="s">
+        <v>170</v>
+      </c>
+      <c r="F3" t="s">
+        <v>174</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" si="0"/>
+        <v>Insert into dbo.IdiomaMensaje values (1, 40,'Nombre');</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>169</v>
+      </c>
+      <c r="D4">
+        <v>41</v>
+      </c>
+      <c r="E4" t="s">
+        <v>170</v>
+      </c>
+      <c r="F4" t="s">
+        <v>175</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" si="0"/>
+        <v>Insert into dbo.IdiomaMensaje values (1, 41,'Apellido');</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D5">
+        <v>42</v>
+      </c>
+      <c r="E5" t="s">
+        <v>170</v>
+      </c>
+      <c r="F5" t="s">
+        <v>176</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" si="0"/>
+        <v>Insert into dbo.IdiomaMensaje values (1, 42,'INFORMACIÓN USUARIO');</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>168</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>169</v>
+      </c>
+      <c r="D6">
+        <v>43</v>
+      </c>
+      <c r="E6" t="s">
+        <v>170</v>
+      </c>
+      <c r="F6" t="s">
+        <v>177</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="0"/>
+        <v>Insert into dbo.IdiomaMensaje values (1, 43,'MAIL');</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>168</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>169</v>
+      </c>
+      <c r="D7">
+        <v>44</v>
+      </c>
+      <c r="E7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F7" t="s">
+        <v>178</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="0"/>
+        <v>Insert into dbo.IdiomaMensaje values (1, 44,'TERMINAL');</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>168</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>169</v>
+      </c>
+      <c r="D8">
+        <v>45</v>
+      </c>
+      <c r="E8" t="s">
+        <v>170</v>
+      </c>
+      <c r="F8" t="s">
+        <v>183</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="0"/>
+        <v>Insert into dbo.IdiomaMensaje values (1, 45,'DNI');</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>168</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>169</v>
+      </c>
+      <c r="D9">
+        <v>46</v>
+      </c>
+      <c r="E9" t="s">
+        <v>170</v>
+      </c>
+      <c r="F9" t="s">
+        <v>179</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="0"/>
+        <v>Insert into dbo.IdiomaMensaje values (1, 46,'BLOQUEADO');</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>168</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>169</v>
+      </c>
+      <c r="D10">
+        <v>47</v>
+      </c>
+      <c r="E10" t="s">
+        <v>170</v>
+      </c>
+      <c r="F10" t="s">
+        <v>180</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" si="0"/>
+        <v>Insert into dbo.IdiomaMensaje values (1, 47,'MODIFICAR');</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>168</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>169</v>
+      </c>
+      <c r="D11">
+        <v>48</v>
+      </c>
+      <c r="E11" t="s">
+        <v>170</v>
+      </c>
+      <c r="F11" t="s">
+        <v>181</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="0"/>
+        <v>Insert into dbo.IdiomaMensaje values (1, 48,'BLANQUEAR CONTRASEÑA');</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>168</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>169</v>
+      </c>
+      <c r="D12">
+        <v>49</v>
+      </c>
+      <c r="E12" t="s">
+        <v>170</v>
+      </c>
+      <c r="F12" t="s">
+        <v>182</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" si="0"/>
+        <v>Insert into dbo.IdiomaMensaje values (1, 49,'BLOQUEAR USUARIO');</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>168</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>169</v>
+      </c>
+      <c r="D13">
+        <v>50</v>
+      </c>
+      <c r="E13" t="s">
+        <v>170</v>
+      </c>
+      <c r="F13" t="s">
+        <v>184</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="H13" t="str">
+        <f>_xlfn.CONCAT(A13:G13)</f>
+        <v>Insert into dbo.IdiomaMensaje values (1, 50,'DESBLOQUEAR USUARIO');</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>168</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>169</v>
+      </c>
+      <c r="D14">
+        <v>51</v>
+      </c>
+      <c r="E14" t="s">
+        <v>170</v>
+      </c>
+      <c r="F14" t="s">
+        <v>185</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" ref="H14:H32" si="1">_xlfn.CONCAT(A14:G14)</f>
+        <v>Insert into dbo.IdiomaMensaje values (1, 51,'OTORTAR PATENTES');</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>168</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>169</v>
+      </c>
+      <c r="D15">
+        <v>52</v>
+      </c>
+      <c r="E15" t="s">
+        <v>170</v>
+      </c>
+      <c r="F15" t="s">
+        <v>186</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="1"/>
+        <v>Insert into dbo.IdiomaMensaje values (1, 52,'NEGAR PATENTES');</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>168</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>169</v>
+      </c>
+      <c r="D16">
+        <v>53</v>
+      </c>
+      <c r="E16" t="s">
+        <v>170</v>
+      </c>
+      <c r="F16" t="s">
+        <v>187</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" si="1"/>
+        <v>Insert into dbo.IdiomaMensaje values (1, 53,'ADMINISTRACION DE FAMILIAS');</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>168</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>169</v>
+      </c>
+      <c r="D17">
+        <v>38</v>
+      </c>
+      <c r="E17" t="s">
+        <v>170</v>
+      </c>
+      <c r="F17" t="s">
+        <v>188</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="H17" t="str">
+        <f t="shared" si="1"/>
+        <v>Insert into dbo.IdiomaMensaje values (2, 38,'USER');</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>168</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>169</v>
+      </c>
+      <c r="D18">
+        <v>39</v>
+      </c>
+      <c r="E18" t="s">
+        <v>170</v>
+      </c>
+      <c r="F18" t="s">
+        <v>189</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="H18" t="str">
+        <f t="shared" si="1"/>
+        <v>Insert into dbo.IdiomaMensaje values (2, 39,'Code');</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>168</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>169</v>
+      </c>
+      <c r="D19">
+        <v>40</v>
+      </c>
+      <c r="E19" t="s">
+        <v>170</v>
+      </c>
+      <c r="F19" t="s">
+        <v>190</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="H19" t="str">
+        <f t="shared" si="1"/>
+        <v>Insert into dbo.IdiomaMensaje values (2, 40,'Name');</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>168</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>169</v>
+      </c>
+      <c r="D20">
+        <v>41</v>
+      </c>
+      <c r="E20" t="s">
+        <v>170</v>
+      </c>
+      <c r="F20" t="s">
+        <v>191</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="H20" t="str">
+        <f t="shared" si="1"/>
+        <v>Insert into dbo.IdiomaMensaje values (2, 41,'Last name');</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>168</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>169</v>
+      </c>
+      <c r="D21">
+        <v>42</v>
+      </c>
+      <c r="E21" t="s">
+        <v>170</v>
+      </c>
+      <c r="F21" t="s">
+        <v>192</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="H21" t="str">
+        <f t="shared" si="1"/>
+        <v>Insert into dbo.IdiomaMensaje values (2, 42,'USER INFORMATION');</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>168</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22" t="s">
+        <v>169</v>
+      </c>
+      <c r="D22">
+        <v>43</v>
+      </c>
+      <c r="E22" t="s">
+        <v>170</v>
+      </c>
+      <c r="F22" t="s">
+        <v>177</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="H22" t="str">
+        <f t="shared" si="1"/>
+        <v>Insert into dbo.IdiomaMensaje values (2, 43,'MAIL');</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>168</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23" t="s">
+        <v>169</v>
+      </c>
+      <c r="D23">
+        <v>44</v>
+      </c>
+      <c r="E23" t="s">
+        <v>170</v>
+      </c>
+      <c r="F23" t="s">
+        <v>178</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="H23" t="str">
+        <f t="shared" si="1"/>
+        <v>Insert into dbo.IdiomaMensaje values (2, 44,'TERMINAL');</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>168</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24" t="s">
+        <v>169</v>
+      </c>
+      <c r="D24">
+        <v>45</v>
+      </c>
+      <c r="E24" t="s">
+        <v>170</v>
+      </c>
+      <c r="F24" t="s">
+        <v>183</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="H24" t="str">
+        <f t="shared" si="1"/>
+        <v>Insert into dbo.IdiomaMensaje values (2, 45,'DNI');</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>168</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25" t="s">
+        <v>169</v>
+      </c>
+      <c r="D25">
+        <v>46</v>
+      </c>
+      <c r="E25" t="s">
+        <v>170</v>
+      </c>
+      <c r="F25" t="s">
+        <v>193</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="H25" t="str">
+        <f t="shared" si="1"/>
+        <v>Insert into dbo.IdiomaMensaje values (2, 46,'BLOCK');</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>168</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26" t="s">
+        <v>169</v>
+      </c>
+      <c r="D26">
+        <v>47</v>
+      </c>
+      <c r="E26" t="s">
+        <v>170</v>
+      </c>
+      <c r="F26" t="s">
+        <v>194</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="H26" t="str">
+        <f t="shared" si="1"/>
+        <v>Insert into dbo.IdiomaMensaje values (2, 47,'CHANGE');</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>168</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27" t="s">
+        <v>169</v>
+      </c>
+      <c r="D27">
+        <v>48</v>
+      </c>
+      <c r="E27" t="s">
+        <v>170</v>
+      </c>
+      <c r="F27" t="s">
+        <v>195</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="H27" t="str">
+        <f t="shared" si="1"/>
+        <v>Insert into dbo.IdiomaMensaje values (2, 48,'REGENERATE PASSWORD');</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>168</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28" t="s">
+        <v>169</v>
+      </c>
+      <c r="D28">
+        <v>49</v>
+      </c>
+      <c r="E28" t="s">
+        <v>170</v>
+      </c>
+      <c r="F28" t="s">
+        <v>196</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="H28" t="str">
+        <f t="shared" si="1"/>
+        <v>Insert into dbo.IdiomaMensaje values (2, 49,'BLOCK USER');</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>168</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29" t="s">
+        <v>169</v>
+      </c>
+      <c r="D29">
+        <v>50</v>
+      </c>
+      <c r="E29" t="s">
+        <v>170</v>
+      </c>
+      <c r="F29" t="s">
+        <v>197</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="H29" t="str">
+        <f t="shared" si="1"/>
+        <v>Insert into dbo.IdiomaMensaje values (2, 50,'UNBLOCK USER');</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>168</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30" t="s">
+        <v>169</v>
+      </c>
+      <c r="D30">
+        <v>51</v>
+      </c>
+      <c r="E30" t="s">
+        <v>170</v>
+      </c>
+      <c r="F30" t="s">
+        <v>198</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="H30" t="str">
+        <f t="shared" si="1"/>
+        <v>Insert into dbo.IdiomaMensaje values (2, 51,'GIVE PATENTS');</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>168</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31" t="s">
+        <v>169</v>
+      </c>
+      <c r="D31">
+        <v>52</v>
+      </c>
+      <c r="E31" t="s">
+        <v>170</v>
+      </c>
+      <c r="F31" t="s">
+        <v>199</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="H31" t="str">
+        <f t="shared" si="1"/>
+        <v>Insert into dbo.IdiomaMensaje values (2, 52,'DENY PATENTS');</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>168</v>
+      </c>
+      <c r="B32">
+        <v>2</v>
+      </c>
+      <c r="C32" t="s">
+        <v>169</v>
+      </c>
+      <c r="D32">
+        <v>53</v>
+      </c>
+      <c r="E32" t="s">
+        <v>170</v>
+      </c>
+      <c r="F32" t="s">
+        <v>200</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="H32" t="str">
+        <f t="shared" si="1"/>
+        <v>Insert into dbo.IdiomaMensaje values (2, 53,'FAMILY MANAGEMENT');</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58A23CC3-EEBD-4C31-B3F0-2DAFB2B9F60D}">
+  <dimension ref="A1:D38"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20:E25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" t="s">
         <v>0</v>
       </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>71</v>
+      </c>
+      <c r="D25" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>72</v>
+      </c>
+      <c r="D26" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>27</v>
+      </c>
+      <c r="C28" t="s">
+        <v>73</v>
+      </c>
+      <c r="D28" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29">
+        <v>28</v>
+      </c>
+      <c r="C29" t="s">
+        <v>74</v>
+      </c>
+      <c r="D29" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30">
+        <v>29</v>
+      </c>
+      <c r="C30" t="s">
+        <v>75</v>
+      </c>
+      <c r="D30" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31">
+        <v>30</v>
+      </c>
+      <c r="C31" t="s">
+        <v>76</v>
+      </c>
+      <c r="D31" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32">
+        <v>31</v>
+      </c>
+      <c r="C32" t="s">
+        <v>77</v>
+      </c>
+      <c r="D32" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33">
+        <v>32</v>
+      </c>
+      <c r="C33" t="s">
+        <v>78</v>
+      </c>
+      <c r="D33" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34">
+        <v>33</v>
+      </c>
+      <c r="C34" t="s">
+        <v>55</v>
+      </c>
+      <c r="D34" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35">
+        <v>34</v>
+      </c>
+      <c r="C35" t="s">
+        <v>79</v>
+      </c>
+      <c r="D35" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36">
+        <v>35</v>
+      </c>
+      <c r="C36" t="s">
+        <v>80</v>
+      </c>
+      <c r="D36" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37">
+        <v>36</v>
+      </c>
+      <c r="C37" t="s">
+        <v>81</v>
+      </c>
+      <c r="D37" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38">
+        <v>37</v>
+      </c>
+      <c r="C38" t="s">
+        <v>56</v>
+      </c>
+      <c r="D38" t="s">
+        <v>115</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{890E5D17-5E43-45C4-9C5A-0C176244FA81}">
+  <dimension ref="A1:F75"/>
+  <sheetViews>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39:G75"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="F4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+      <c r="F7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>7</v>
+      </c>
+      <c r="F8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>8</v>
+      </c>
+      <c r="F9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>9</v>
+      </c>
+      <c r="F10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+      <c r="F11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>11</v>
+      </c>
+      <c r="F12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>90</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>13</v>
+      </c>
+      <c r="F14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>91</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>14</v>
+      </c>
+      <c r="F15" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>92</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>15</v>
+      </c>
+      <c r="F16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>93</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>16</v>
+      </c>
+      <c r="F17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>94</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>17</v>
+      </c>
+      <c r="F18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>95</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>18</v>
+      </c>
+      <c r="F19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>96</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>19</v>
+      </c>
+      <c r="F20" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>97</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>20</v>
+      </c>
+      <c r="F21" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>98</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>21</v>
+      </c>
+      <c r="F22" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>99</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>22</v>
+      </c>
+      <c r="F23" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>100</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>23</v>
+      </c>
+      <c r="F24" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>101</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>24</v>
+      </c>
+      <c r="F25" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>102</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>25</v>
+      </c>
+      <c r="F26" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>103</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>26</v>
+      </c>
+      <c r="F27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>104</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>27</v>
+      </c>
+      <c r="F28" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>105</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>28</v>
+      </c>
+      <c r="F29" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>106</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>29</v>
+      </c>
+      <c r="F30" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>107</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>30</v>
+      </c>
+      <c r="F31" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>108</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>31</v>
+      </c>
+      <c r="F32" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>109</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>32</v>
+      </c>
+      <c r="F33" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>110</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>33</v>
+      </c>
+      <c r="F34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>111</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>34</v>
+      </c>
+      <c r="F35" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>112</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>35</v>
+      </c>
+      <c r="F36" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>113</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>36</v>
+      </c>
+      <c r="F37" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>114</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>37</v>
+      </c>
+      <c r="F38" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>115</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D40">
+        <v>2</v>
+      </c>
+      <c r="E40">
+        <v>2</v>
+      </c>
+      <c r="F40" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D41">
+        <v>2</v>
+      </c>
+      <c r="E41">
+        <v>3</v>
+      </c>
+      <c r="F41" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D42">
+        <v>2</v>
+      </c>
+      <c r="E42">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
+      <c r="F42" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D43">
+        <v>2</v>
+      </c>
+      <c r="E43">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+      <c r="F43" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D44">
+        <v>2</v>
+      </c>
+      <c r="E44">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+      <c r="F44" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D45">
+        <v>2</v>
+      </c>
+      <c r="E45">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+      <c r="F45" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D46">
+        <v>2</v>
+      </c>
+      <c r="E46">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+      <c r="F46" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D47">
+        <v>2</v>
+      </c>
+      <c r="E47">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+      <c r="F47" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D48">
+        <v>2</v>
+      </c>
+      <c r="E48">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+      <c r="F48" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="49" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D49">
+        <v>2</v>
+      </c>
+      <c r="E49">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+      <c r="F49" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="50" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D50">
+        <v>2</v>
+      </c>
+      <c r="E50">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+      <c r="F50" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="51" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D51">
+        <v>2</v>
+      </c>
+      <c r="E51">
         <v>13</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+      <c r="F51" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="52" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D52">
+        <v>2</v>
+      </c>
+      <c r="E52">
         <v>14</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+      <c r="F52" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="53" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D53">
+        <v>2</v>
+      </c>
+      <c r="E53">
         <v>15</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+      <c r="F53" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="54" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D54">
+        <v>2</v>
+      </c>
+      <c r="E54">
         <v>16</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+      <c r="F54" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="55" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D55">
+        <v>2</v>
+      </c>
+      <c r="E55">
         <v>17</v>
       </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+      <c r="F55" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="56" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D56">
+        <v>2</v>
+      </c>
+      <c r="E56">
         <v>18</v>
       </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+      <c r="F56" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="57" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D57">
+        <v>2</v>
+      </c>
+      <c r="E57">
+        <v>29</v>
+      </c>
+      <c r="F57" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="58" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D58">
+        <v>2</v>
+      </c>
+      <c r="E58">
         <v>20</v>
       </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+      <c r="F58" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="59" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D59">
+        <v>2</v>
+      </c>
+      <c r="E59">
         <v>21</v>
       </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+      <c r="F59" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="60" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D60">
+        <v>2</v>
+      </c>
+      <c r="E60">
         <v>22</v>
       </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+      <c r="F60" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D61">
+        <v>2</v>
+      </c>
+      <c r="E61">
         <v>23</v>
       </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+      <c r="F61" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="62" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D62">
+        <v>2</v>
+      </c>
+      <c r="E62">
         <v>24</v>
       </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+      <c r="F62" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="63" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D63">
+        <v>2</v>
+      </c>
+      <c r="E63">
         <v>25</v>
       </c>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+      <c r="F63" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="64" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D64">
+        <v>2</v>
+      </c>
+      <c r="E64">
         <v>26</v>
       </c>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
+      <c r="F64" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="65" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D65">
+        <v>2</v>
+      </c>
+      <c r="E65">
         <v>27</v>
       </c>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
+      <c r="F65" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="66" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D66">
+        <v>2</v>
+      </c>
+      <c r="E66">
         <v>28</v>
       </c>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
+      <c r="F66" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="67" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D67">
+        <v>2</v>
+      </c>
+      <c r="E67">
         <v>29</v>
       </c>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
+      <c r="F67" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="68" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D68">
+        <v>2</v>
+      </c>
+      <c r="E68">
         <v>30</v>
       </c>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
+      <c r="F68" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="69" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D69">
+        <v>2</v>
+      </c>
+      <c r="E69">
         <v>31</v>
       </c>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
+      <c r="F69" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="70" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D70">
+        <v>2</v>
+      </c>
+      <c r="E70">
         <v>32</v>
       </c>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
+      <c r="F70" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="71" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D71">
+        <v>2</v>
+      </c>
+      <c r="E71">
         <v>33</v>
       </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
+      <c r="F71" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="72" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D72">
+        <v>2</v>
+      </c>
+      <c r="E72">
         <v>34</v>
       </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
+      <c r="F72" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="73" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D73">
+        <v>2</v>
+      </c>
+      <c r="E73">
         <v>35</v>
       </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
+      <c r="F73" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="74" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D74">
+        <v>2</v>
+      </c>
+      <c r="E74">
         <v>36</v>
       </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
+      <c r="F74" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="75" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D75">
+        <v>2</v>
+      </c>
+      <c r="E75">
         <v>37</v>
       </c>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
-        <v>39</v>
+      <c r="F75" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/Idioma.xlsx
+++ b/Idioma.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matias\Documents\GitHub\Proyecto-diploma\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9904C21D-7667-45BB-96B7-3E57CCE23DA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F66AFE7-ADBC-4C9B-9304-94C241BEFEC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13170" yWindow="1800" windowWidth="15375" windowHeight="7875" xr2:uid="{6B5CBA2D-E456-47BC-BFAB-469435F14461}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{6B5CBA2D-E456-47BC-BFAB-469435F14461}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="207">
   <si>
     <t>LOGIN</t>
   </si>
@@ -637,6 +637,24 @@
   </si>
   <si>
     <t>FAMILY MANAGEMENT'</t>
+  </si>
+  <si>
+    <t>MSG CERRAR SESION</t>
+  </si>
+  <si>
+    <t>¿Desea cerrar sesión?</t>
+  </si>
+  <si>
+    <t>INFORMACION</t>
+  </si>
+  <si>
+    <t>INFORMATION</t>
+  </si>
+  <si>
+    <t>Do you want to close the session?</t>
+  </si>
+  <si>
+    <t>INFORMACIÓN</t>
   </si>
 </sst>
 </file>
@@ -992,10 +1010,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2CE4345-EE65-4DE3-BD7F-75470FAF1116}">
-  <dimension ref="A1:G54"/>
+  <dimension ref="A1:G56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49:C50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1003,7 +1021,7 @@
     <col min="2" max="2" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="43.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2134,6 +2152,37 @@
       </c>
       <c r="E54" t="s">
         <v>167</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>4</v>
+      </c>
+      <c r="C55" t="s">
+        <v>201</v>
+      </c>
+      <c r="D55" t="s">
+        <v>202</v>
+      </c>
+      <c r="E55" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="C56" t="s">
+        <v>203</v>
+      </c>
+      <c r="D56" t="s">
+        <v>206</v>
+      </c>
+      <c r="E56" t="s">
+        <v>204</v>
       </c>
     </row>
   </sheetData>
